--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2721428.190063378</v>
+        <v>2857530.192589651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526077</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5234675.494733801</v>
+        <v>5527339.630249348</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>205.6569777774022</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>314.0895199640735</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>204.5649351202953</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>28.65298429653964</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>193.7237604659991</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>68.26014427215397</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>5.097767710858146</v>
+        <v>136.7698321144741</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1114,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>77.1433618514711</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555165</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>147.7948927558107</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>35.21818527535756</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1375,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1421,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>201.2638913600388</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>11.17736360794318</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>7.441938898131897</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>381.6010685131467</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>98.15366458399261</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>125.1359756716363</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1819,7 +1821,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1904,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2002,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>102.0412378013745</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2065,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>51.16397888403758</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>113.0205107545265</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>125.5975937366021</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2713,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>137.4320560761557</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3004,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>227.6337063079056</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>93.30762551611231</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>172.804035614548</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>211.0515495966693</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>149.7181052831735</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>3.554365680750263</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3667,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>124.7343684644406</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>68.71620682293712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.649880648615</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3746,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>138.0247160535887</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>106.7228969293688</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180557</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>106.0910900114305</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>215.4518055257763</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>128.8628237307787</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>86.75299154484905</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1820.815201993657</v>
+        <v>1227.540063612212</v>
       </c>
       <c r="C2" t="n">
-        <v>1797.954876047361</v>
+        <v>1204.679737665916</v>
       </c>
       <c r="D2" t="n">
-        <v>1590.220555060086</v>
+        <v>781.3871168509165</v>
       </c>
       <c r="E2" t="n">
-        <v>1164.243615207943</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>739.1194333973433</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>334.7803709867919</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="L2" t="n">
-        <v>475.942330131692</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="M2" t="n">
-        <v>932.7282368344229</v>
+        <v>1838.122366836496</v>
       </c>
       <c r="N2" t="n">
-        <v>932.7282368344229</v>
+        <v>1838.122366836496</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>1838.122366836496</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.73947048901</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533643</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1252.324484659893</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1252.324484659893</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>1244.644889868044</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.623162244782</v>
+        <v>1243.348023863338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668148</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843196</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996046</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725418</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055446</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.79522727305</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353596</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353596</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>398.1166233149506</v>
       </c>
       <c r="K3" t="n">
-        <v>475.2419029331441</v>
+        <v>513.0834392682348</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>513.0834392682348</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>513.0834392682348</v>
       </c>
       <c r="N3" t="n">
-        <v>1845.599623041337</v>
+        <v>513.0834392682348</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>992.0223635106624</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1470.96128775309</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177124</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474802</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394439</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533705</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366922</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335852</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868776</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>956.7763421118343</v>
+        <v>949.9106946954702</v>
       </c>
       <c r="C4" t="n">
-        <v>784.8037789907503</v>
+        <v>949.9106946954702</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>786.5939218222409</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>620.3857159750944</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.1934635164754</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1421.794714651387</v>
+        <v>1691.767416841769</v>
       </c>
       <c r="U4" t="n">
-        <v>1421.794714651387</v>
+        <v>1411.582968342074</v>
       </c>
       <c r="V4" t="n">
-        <v>1421.794714651387</v>
+        <v>1382.640559961731</v>
       </c>
       <c r="W4" t="n">
-        <v>1146.9423108239</v>
+        <v>1382.640559961731</v>
       </c>
       <c r="X4" t="n">
-        <v>1146.9423108239</v>
+        <v>1140.076663407536</v>
       </c>
       <c r="Y4" t="n">
-        <v>1146.9423108239</v>
+        <v>1140.076663407536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.3435071337996</v>
+        <v>1941.771922011108</v>
       </c>
       <c r="C5" t="n">
-        <v>99.48318118750379</v>
+        <v>1514.871192024409</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>1091.578571209409</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>665.6016313572665</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>240.4774495466667</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>240.1787911765194</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>814.4714747539724</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.257381456703</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1366.319142682382</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1008.829727808632</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>612.4383781089787</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X5" t="n">
-        <v>543.4887374300353</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y5" t="n">
-        <v>542.1918714253296</v>
+        <v>1957.579882262234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>36.91199246082674</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L6" t="n">
-        <v>36.91199246082674</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>36.91199246082674</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>393.2225928484407</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511716</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253902</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.8556223532464</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="C7" t="n">
-        <v>451.8830592321624</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="D7" t="n">
-        <v>451.8830592321624</v>
+        <v>764.3331513022005</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1806.305960203198</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1040.36435937557</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1040.36435937557</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1040.36435937557</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y7" t="n">
-        <v>814.0215910653121</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.3026401727913</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3800524440326</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>115.1278356694369</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>93.19129985769854</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>72.10752208750284</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L8" t="n">
-        <v>475.2419029331441</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M8" t="n">
-        <v>475.2419029331441</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>932.027809635875</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2174.91618097192</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2174.91618097192</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341684</v>
+        <v>2174.91618097192</v>
       </c>
       <c r="X8" t="n">
-        <v>1037.488274509431</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>632.1510044643213</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050605</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="O9" t="n">
-        <v>1686.413844810522</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956633</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.1723260423256</v>
+        <v>645.7023101134083</v>
       </c>
       <c r="C10" t="n">
-        <v>186.1997629212416</v>
+        <v>645.7023101134083</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082674</v>
+        <v>482.385537240179</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082674</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2142.298714628986</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1898.959366854886</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1618.77491835519</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1337.063450963219</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1062.211047135732</v>
       </c>
       <c r="X10" t="n">
-        <v>548.3382947543912</v>
+        <v>1062.211047135732</v>
       </c>
       <c r="Y10" t="n">
-        <v>548.3382947543912</v>
+        <v>835.8682788254739</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1683.251351194936</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1256.350621208236</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>787.9925577384986</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1684.985148555618</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1953.232223959333</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.232223959333</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O11" t="n">
-        <v>2798.376874110145</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3316.548334063481</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3316.548334063481</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3316.548334063481</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2920.156984363828</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2508.436985531575</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2103.099715486465</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>934.6666656109302</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="L12" t="n">
-        <v>934.6666656109302</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="M12" t="n">
-        <v>934.6666656109302</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="N12" t="n">
-        <v>934.6666656109302</v>
+        <v>223.2920388516654</v>
       </c>
       <c r="O12" t="n">
-        <v>934.6666656109302</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1335.007093396027</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>748.7837626624374</v>
+        <v>3519.102724620894</v>
       </c>
       <c r="C13" t="n">
-        <v>576.8111995413534</v>
+        <v>3519.102724620894</v>
       </c>
       <c r="D13" t="n">
-        <v>576.8111995413534</v>
+        <v>3355.785951747665</v>
       </c>
       <c r="E13" t="n">
-        <v>410.6029936942069</v>
+        <v>3189.577745900518</v>
       </c>
       <c r="F13" t="n">
-        <v>238.7412194687674</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299951</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299951</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.380167178015</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T13" t="n">
-        <v>2002.040819403915</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.856370904219</v>
+        <v>4544.573260704805</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.144903512248</v>
+        <v>4262.861793312833</v>
       </c>
       <c r="W13" t="n">
-        <v>1165.292499684761</v>
+        <v>3988.009389485347</v>
       </c>
       <c r="X13" t="n">
-        <v>1165.292499684761</v>
+        <v>3745.445492931152</v>
       </c>
       <c r="Y13" t="n">
-        <v>938.949731374503</v>
+        <v>3519.102724620894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.133225325453</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>881.2324953387536</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>457.9398745237538</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>72.48424976299951</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>72.48424976299951</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>72.48424976299951</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299951</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299951</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299951</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801185</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.469431397237</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>2763.462022214357</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3608.606672365169</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149976</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3298.919623067749</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2941.430208193999</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.038858494346</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2133.318859662093</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1727.981589616983</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>1499.767984414245</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="M15" t="n">
-        <v>1499.767984414245</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N15" t="n">
-        <v>1499.767984414245</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.6019286254902</v>
+        <v>832.9089957654462</v>
       </c>
       <c r="C16" t="n">
-        <v>171.6293655044062</v>
+        <v>660.9364326443622</v>
       </c>
       <c r="D16" t="n">
-        <v>171.6293655044062</v>
+        <v>660.9364326443622</v>
       </c>
       <c r="E16" t="n">
-        <v>171.6293655044062</v>
+        <v>494.7282267972157</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299951</v>
+        <v>494.7282267972157</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299951</v>
+        <v>328.4712570914479</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.238433421467</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.526966029496</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W16" t="n">
-        <v>1002.674562202009</v>
+        <v>1265.638861031707</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1106656478138</v>
+        <v>1023.074964477512</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.7678973375558</v>
+        <v>1023.074964477512</v>
       </c>
     </row>
     <row r="17">
@@ -5516,40 +5518,40 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>440.483482374059</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C19" t="n">
-        <v>268.510919252975</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2179.643783443831</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1936.304435669731</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U19" t="n">
-        <v>1656.119987170036</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V19" t="n">
-        <v>1374.408519778064</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W19" t="n">
-        <v>1099.556115950577</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X19" t="n">
-        <v>856.9922193963826</v>
+        <v>1103.908673261323</v>
       </c>
       <c r="Y19" t="n">
-        <v>630.6494510861246</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,22 +5752,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5786,7 +5788,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
         <v>3777.607131232208</v>
@@ -5826,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
         <v>1828.971033901635</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>684.0970829842502</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="26">
@@ -6236,13 +6238,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3959.47027938737</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4667.749558545297</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>3674.746986605243</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>3535.926727942459</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>3372.60995506923</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>3372.60995506923</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3200.748180843791</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>3864.912955317308</v>
       </c>
     </row>
     <row r="29">
@@ -6540,13 +6542,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.799010768326</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>612.3940204581201</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C31" t="n">
-        <v>440.421457337036</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1589.056897064296</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X31" t="n">
-        <v>802.5599891701856</v>
+        <v>1297.927368304999</v>
       </c>
       <c r="Y31" t="n">
-        <v>802.5599891701856</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.818868109901</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3444.765186071969</v>
+        <v>440.421457337036</v>
       </c>
       <c r="C34" t="n">
-        <v>3272.792622950885</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D34" t="n">
-        <v>3272.792622950885</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>4940.586139367641</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>4660.401690867946</v>
+        <v>1656.057962133013</v>
       </c>
       <c r="V34" t="n">
-        <v>4378.690223475975</v>
+        <v>1374.346494741041</v>
       </c>
       <c r="W34" t="n">
-        <v>4103.837819648487</v>
+        <v>1099.494090913554</v>
       </c>
       <c r="X34" t="n">
-        <v>3861.273923094293</v>
+        <v>856.9301943593596</v>
       </c>
       <c r="Y34" t="n">
-        <v>3634.931154784034</v>
+        <v>630.5874260491016</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6938,25 +6940,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>612.3940204581201</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C37" t="n">
-        <v>440.421457337036</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D37" t="n">
-        <v>440.421457337036</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7135,10 +7137,10 @@
         <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>1028.902757480444</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>802.5599891701856</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q38" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>700.2342829360799</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L39" t="n">
-        <v>1446.844867123559</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.5863609803849</v>
+        <v>1088.637176146456</v>
       </c>
       <c r="C40" t="n">
-        <v>391.6137978593009</v>
+        <v>916.6646130253723</v>
       </c>
       <c r="D40" t="n">
-        <v>228.2970249860716</v>
+        <v>753.347840152143</v>
       </c>
       <c r="E40" t="n">
-        <v>102.3027134058285</v>
+        <v>587.1396343049965</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>415.2778600795569</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7360,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1557.543841010909</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1314.979944456714</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>1088.637176146456</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2224.324999672979</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1797.424269686279</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1374.13164887128</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560448</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L41" t="n">
-        <v>548.3062129717241</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.298803788843</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>2342.291394605962</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605962</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.57067376389</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3040.564713664162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2644.173363964509</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2644.173363964509</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2644.173363964509</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>934.6666656109302</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>934.6666656109302</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N42" t="n">
-        <v>934.6666656109302</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>343.6019286254902</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C43" t="n">
-        <v>343.6019286254902</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D43" t="n">
-        <v>180.2851557522609</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E43" t="n">
-        <v>72.48424976299951</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F43" t="n">
-        <v>72.48424976299951</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299951</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1559.238433421467</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.526966029496</v>
+        <v>1757.664925652881</v>
       </c>
       <c r="W43" t="n">
-        <v>1002.674562202009</v>
+        <v>1482.812521825394</v>
       </c>
       <c r="X43" t="n">
-        <v>760.1106656478138</v>
+        <v>1375.649804642131</v>
       </c>
       <c r="Y43" t="n">
-        <v>533.7678973375558</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1049.778315921866</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>622.8775859351665</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>622.8775859351665</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>622.8775859351665</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>622.8775859351665</v>
+        <v>839.4070255988731</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>276.803377206998</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>276.803377206998</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>1173.795968024117</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>2070.788558841236</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N44" t="n">
-        <v>2070.788558841236</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O44" t="n">
-        <v>2915.933208992048</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P44" t="n">
-        <v>3624.212488149976</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067749</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664162</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2286.683949090759</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1874.963950258506</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1469.626680213396</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491135</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>351.6283820045024</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1188.427190087409</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>1335.007093396027</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.007093396027</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>1335.007093396027</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>1335.007093396027</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>813.9523458372516</v>
+        <v>842.3270571327721</v>
       </c>
       <c r="C46" t="n">
-        <v>641.9797827161676</v>
+        <v>670.3544940116881</v>
       </c>
       <c r="D46" t="n">
-        <v>641.9797827161676</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E46" t="n">
-        <v>475.7715768690211</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F46" t="n">
-        <v>303.9098026435815</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G46" t="n">
-        <v>303.9098026435815</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H46" t="n">
-        <v>160.1135341517359</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.422881921163</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1557.711414529191</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1282.859010701704</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1040.29511414751</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y46" t="n">
-        <v>813.9523458372516</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487767</v>
       </c>
       <c r="L2" t="n">
-        <v>481.7770299789515</v>
+        <v>522.0887335865903</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>521.2079540533991</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>135.5393999712146</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8055,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>465.1567191589065</v>
+        <v>138.5273307558426</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761896</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.547532358796</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>29.03818836740523</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N5" t="n">
-        <v>361.2933355520367</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>381.2527255747679</v>
+        <v>461.4026962257055</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>112.2559661033163</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>99.71676862514295</v>
+        <v>458.8548577776432</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>308.3879047213668</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>144.610673677613</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8781,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>426.1551116948254</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>53.3388120979151</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9008,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>666.3063736060849</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>408.4283502568324</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,10 +9415,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>914.4330122810034</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>700.6282357017791</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823038</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9884,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>488.0298379845275</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,7 +10199,7 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>730.3607534598153</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>878.1144544646206</v>
+        <v>809.3863451554519</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10586,7 +10588,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>39.42764440110528</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10674,7 +10676,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10683,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>129.1350140843319</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,10 +10904,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>776.6671919541075</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10914,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>99.39100174184128</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,19 +11065,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>152.6741680809351</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.33274487194</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11136,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>482.7542307206702</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>896.3899752251273</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>235.8029164997264</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369257</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>171.1572889048716</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>165.0112248015704</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.45242388577435</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>158.965792875242</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>160.9917581079246</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>40.11610194047427</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.98949189919257</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>17.22233013529085</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>66.39245920468201</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>188.9742787046153</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>75.24379827041854</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>62.66671528834294</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.82078141371744</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>12.50455128074731</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>130.7717151110431</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25123,13 +25125,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.10191868181104</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>66.33105441802945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25321,13 +25323,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>20.42505120001169</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>236.5838919079027</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>39.81175532423434</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>95.87819318577306</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>283.6924544000323</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>57.82322685930622</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>134.0471675772224</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>184.8438662606695</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>32.82078141371827</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>12.01789103227773</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474343.5762739772</v>
+        <v>475032.0218095665</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474343.5762739772</v>
+        <v>477261.057418815</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474343.5762739772</v>
+        <v>477261.057418815</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>380476.8038305835</v>
+        <v>478521.9026254739</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>380476.8038305835</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478521.9026254739</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>478521.9026254737</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478521.9026254738</v>
+        <v>478521.9026254737</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>478521.9026254739</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>380476.8038305836</v>
+        <v>478521.9026254737</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>380476.8038305835</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.601310884</v>
+        <v>567881.6013108843</v>
       </c>
       <c r="C2" t="n">
-        <v>567881.6013108842</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108838</v>
+        <v>567881.6013108841</v>
       </c>
       <c r="E2" t="n">
-        <v>435717.2692283596</v>
+        <v>547979.6430590109</v>
       </c>
       <c r="F2" t="n">
-        <v>435717.2692283597</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="G2" t="n">
+        <v>547979.6430590111</v>
+      </c>
+      <c r="H2" t="n">
         <v>547979.6430590109</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547979.6430590109</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547979.6430590107</v>
+      </c>
+      <c r="P2" t="n">
         <v>547979.6430590105</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547979.643059011</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547979.6430590106</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547979.6430590109</v>
-      </c>
-      <c r="O2" t="n">
-        <v>435717.2692283597</v>
-      </c>
-      <c r="P2" t="n">
-        <v>435717.2692283598</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768715</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34761.27815811222</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389552</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26442,22 +26444,22 @@
         <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389552</v>
       </c>
       <c r="O4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389546</v>
       </c>
       <c r="P4" t="n">
-        <v>34761.27815811223</v>
+        <v>43748.40045389553</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167414.3960456636</v>
+        <v>162987.6642404937</v>
       </c>
       <c r="C6" t="n">
-        <v>322040.1166637844</v>
+        <v>311652.777557387</v>
       </c>
       <c r="D6" t="n">
-        <v>322040.1166637839</v>
+        <v>335059.6112309994</v>
       </c>
       <c r="E6" t="n">
-        <v>213104.293240766</v>
+        <v>210741.823860045</v>
       </c>
       <c r="F6" t="n">
-        <v>345867.9612503679</v>
+        <v>426481.1804166855</v>
       </c>
       <c r="G6" t="n">
-        <v>324321.2603223756</v>
+        <v>426481.1804166858</v>
       </c>
       <c r="H6" t="n">
-        <v>426481.1804166852</v>
+        <v>426481.1804166856</v>
       </c>
       <c r="I6" t="n">
+        <v>426481.1804166856</v>
+      </c>
+      <c r="J6" t="n">
+        <v>299903.911836397</v>
+      </c>
+      <c r="K6" t="n">
+        <v>407834.5800596657</v>
+      </c>
+      <c r="L6" t="n">
         <v>426481.1804166857</v>
       </c>
-      <c r="J6" t="n">
-        <v>305758.6634739288</v>
-      </c>
-      <c r="K6" t="n">
-        <v>426481.1804166857</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>246417.3089615181</v>
+      </c>
+      <c r="N6" t="n">
         <v>426481.1804166855</v>
       </c>
-      <c r="M6" t="n">
-        <v>315671.8203075521</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>426481.1804166856</v>
       </c>
-      <c r="O6" t="n">
-        <v>345867.9612503679</v>
-      </c>
       <c r="P6" t="n">
-        <v>345867.961250368</v>
+        <v>426481.1804166853</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353628</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>213.4027168294475</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>107.6276504895475</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>36.34101917606367</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>250.2413684215117</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>101.1659342747064</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27667,19 +27669,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>339.3426545717762</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.4483560778168</v>
+        <v>27.77629167420088</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>345.4883608353617</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340002</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>13.88871238868632</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.2155117306989</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L2" t="n">
-        <v>443.4649875463285</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>97.96403816098331</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>442.7574853255732</v>
+        <v>116.1280969225092</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>6.657387709418744</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9096973612262</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>76.49136530850691</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>77.94592742031428</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>270.956641821935</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>122.2114398442797</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>404.3842704899967</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>15.7634502876838</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>643.7912868918553</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,10 +36135,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>891.3362317686754</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>451.9051633799294</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>707.2639729474873</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>839.8024120319977</v>
+        <v>771.074302722829</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>17.02841056777194</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>94.10236418953542</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>754.1521052398779</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,19 +37785,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>114.3621256483122</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374939</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>873.2180855029051</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>206.3829570141399</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374939</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>148.0605083925437</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>142.2641865125919</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857530.192589651</v>
+        <v>2856833.53138456</v>
       </c>
     </row>
     <row r="7">
@@ -661,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>314.0895199640735</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>247.5707675801274</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>158.4526492332348</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>28.65298429653964</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -904,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>71.21229122917221</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -913,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>193.7237604659991</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>136.7698321144741</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>257.4638774372665</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>170.2553066834604</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555165</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>35.21818527535756</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1356,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1539,10 +1539,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>11.17736360794318</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.17736360794014</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>125.1359756716363</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2067,10 +2067,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>51.16397888403758</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0205107545265</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125.5975937366021</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>137.4320560761557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2952,25 +2952,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.30762551611231</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>211.0515495966693</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>149.7181052831735</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>68.71620682293712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180557</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>106.0910900114305</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>128.8628237307787</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1227.540063612212</v>
+        <v>1336.254862086502</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.679737665916</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>781.3871168509165</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>464.1249754730645</v>
+        <v>60.08457143266045</v>
       </c>
       <c r="F2" t="n">
-        <v>443.0411977028688</v>
+        <v>39.00079366246476</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J2" t="n">
-        <v>401.3055941092129</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516406</v>
+        <v>517.6410595347459</v>
       </c>
       <c r="L2" t="n">
-        <v>1359.183442594068</v>
+        <v>996.5799837771743</v>
       </c>
       <c r="M2" t="n">
-        <v>1838.122366836496</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="N2" t="n">
-        <v>1838.122366836496</v>
+        <v>1000.082360869261</v>
       </c>
       <c r="O2" t="n">
-        <v>1838.122366836496</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615869</v>
+        <v>1479.02128511169</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.73947048901</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533643</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533643</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="V2" t="n">
-        <v>1252.324484659893</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="W2" t="n">
-        <v>1252.324484659893</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="X2" t="n">
-        <v>1244.644889868044</v>
+        <v>1602.134304741797</v>
       </c>
       <c r="Y2" t="n">
-        <v>1243.348023863338</v>
+        <v>1352.062822337628</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668148</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843196</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996046</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725418</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055446</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.79522727305</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353596</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353596</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149506</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="K3" t="n">
-        <v>513.0834392682348</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="L3" t="n">
-        <v>513.0834392682348</v>
+        <v>410.5729931455419</v>
       </c>
       <c r="M3" t="n">
-        <v>513.0834392682348</v>
+        <v>889.5119173879704</v>
       </c>
       <c r="N3" t="n">
-        <v>513.0834392682348</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="O3" t="n">
-        <v>992.0223635106624</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="P3" t="n">
-        <v>1470.96128775309</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615869</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615869</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177124</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474802</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394439</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533705</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366922</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335852</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868776</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>949.9106946954702</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954702</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222409</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750944</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="G4" t="n">
-        <v>282.266972043887</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520414</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231739</v>
+        <v>38.70213529231745</v>
       </c>
       <c r="J4" t="n">
-        <v>96.1934635164754</v>
+        <v>96.19346351647548</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
         <v>1068.596180986984</v>
@@ -4506,34 +4506,34 @@
         <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375107</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615869</v>
+        <v>1764.971717135008</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841769</v>
+        <v>1521.632369360907</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342074</v>
+        <v>1241.447920861212</v>
       </c>
       <c r="V4" t="n">
-        <v>1382.640559961731</v>
+        <v>959.7364534692406</v>
       </c>
       <c r="W4" t="n">
-        <v>1382.640559961731</v>
+        <v>684.8840496417536</v>
       </c>
       <c r="X4" t="n">
-        <v>1140.076663407536</v>
+        <v>442.3201530875587</v>
       </c>
       <c r="Y4" t="n">
-        <v>1140.076663407536</v>
+        <v>442.3201530875587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.771922011108</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C5" t="n">
-        <v>1514.871192024409</v>
+        <v>965.1452933471885</v>
       </c>
       <c r="D5" t="n">
-        <v>1091.578571209409</v>
+        <v>541.8526725321888</v>
       </c>
       <c r="E5" t="n">
-        <v>665.6016313572665</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>240.4774495466667</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>240.1787911765194</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.87674826694</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.579882262234</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>866.8612493132769</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
         <v>1302.520320645319</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>927.6499241754298</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>927.6499241754298</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>764.3331513022005</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>927.6499241754298</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>927.6499241754298</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>2043.959734409802</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>549.9383681074144</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.91618097192</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.91618097192</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.91618097192</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.236586180072</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175366</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>695.3677541233694</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>695.3677541233694</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>695.3677541233694</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M9" t="n">
-        <v>695.3677541233694</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="N9" t="n">
-        <v>1246.033289107808</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O9" t="n">
-        <v>1246.033289107808</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P9" t="n">
-        <v>1678.746465514894</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.7023101134083</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>645.7023101134083</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>482.385537240179</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2142.298714628986</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1898.959366854886</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1618.77491835519</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.063450963219</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1062.211047135732</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1062.211047135732</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>835.8682788254739</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="N11" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O11" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P11" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
@@ -5123,16 +5123,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>223.2920388516654</v>
+        <v>275.974508780231</v>
       </c>
       <c r="L12" t="n">
-        <v>223.2920388516654</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M12" t="n">
-        <v>223.2920388516654</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N12" t="n">
-        <v>223.2920388516654</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
         <v>1112.773316863137</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3519.102724620894</v>
+        <v>686.6827951484205</v>
       </c>
       <c r="C13" t="n">
-        <v>3519.102724620894</v>
+        <v>686.6827951484205</v>
       </c>
       <c r="D13" t="n">
-        <v>3355.785951747665</v>
+        <v>523.3660222751912</v>
       </c>
       <c r="E13" t="n">
-        <v>3189.577745900518</v>
+        <v>357.1578164280447</v>
       </c>
       <c r="F13" t="n">
-        <v>3178.287479629868</v>
+        <v>357.1578164280447</v>
       </c>
       <c r="G13" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H13" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q13" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S13" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="T13" t="n">
-        <v>4824.7577092045</v>
+        <v>1992.337779732027</v>
       </c>
       <c r="U13" t="n">
-        <v>4544.573260704805</v>
+        <v>1712.153331232332</v>
       </c>
       <c r="V13" t="n">
-        <v>4262.861793312833</v>
+        <v>1430.44186384036</v>
       </c>
       <c r="W13" t="n">
-        <v>3988.009389485347</v>
+        <v>1155.589460012873</v>
       </c>
       <c r="X13" t="n">
-        <v>3745.445492931152</v>
+        <v>913.0255634586784</v>
       </c>
       <c r="Y13" t="n">
-        <v>3519.102724620894</v>
+        <v>686.6827951484205</v>
       </c>
     </row>
     <row r="14">
@@ -5278,46 +5278,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>292.0244587153436</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991801</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478502</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629314</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787242</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399955</v>
@@ -5348,7 +5348,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5357,25 +5357,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>739.6560874287652</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M15" t="n">
-        <v>739.6560874287652</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N15" t="n">
-        <v>1828.971033901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>832.9089957654462</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>660.9364326443622</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>660.9364326443622</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>494.7282267972157</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>494.7282267972157</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>328.4712570914479</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1265.638861031707</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1023.074964477512</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.074964477512</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1199.06430284061</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.7427045492574</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.908673261323</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1103.908673261323</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,43 +5761,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O20" t="n">
-        <v>4090.576687723259</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H21" t="n">
         <v>102.3027134058285</v>
@@ -5831,28 +5831,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>684.0970829842502</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1267.165879923982</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1024.601983369787</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>798.2592150595294</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>4143.246847793825</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>5115.135670291427</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.1944999357522</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.403524545608</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.0607562353503</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6232,19 +6232,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6311,7 +6311,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M27" t="n">
         <v>821.6753975134684</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3674.746986605243</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3535.926727942459</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3372.60995506923</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3372.60995506923</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3200.748180843791</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3864.912955317308</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3864.912955317308</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6548,10 +6548,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M30" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.491264859194</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1297.927368304999</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,16 +6785,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>440.421457337036</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6891,19 +6891,19 @@
         <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1656.057962133013</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1374.346494741041</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1099.494090913554</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>856.9301943593596</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>630.5874260491016</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,49 +6937,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7016,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>390.8583291475138</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.5863609803849</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7140,7 +7140,7 @@
         <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,31 +7174,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>3105.626261478504</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
         <v>5010.768376164567</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>946.5481644506465</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>946.5481644506465</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>946.5481644506465</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O39" t="n">
-        <v>1836.029442462118</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P39" t="n">
-        <v>1836.029442462118</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1836.029442462118</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1088.637176146456</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>916.6646130253723</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>753.347840152143</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>587.1396343049965</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>415.2778600795569</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7362,22 +7362,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1832.396244838396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1557.543841010909</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1314.979944456714</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1088.637176146456</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7399,58 +7399,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>338.6504695827671</v>
       </c>
       <c r="K41" t="n">
-        <v>464.9061722227241</v>
+        <v>1054.158777558266</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.531219842001</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N41" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
@@ -7499,19 +7499,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>557.3635891120873</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>557.3635891120873</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2039.376393044857</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.664925652881</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1482.812521825394</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>1375.649804642131</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,61 +7624,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988731</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,10 +7690,10 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>971.931772215671</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P45" t="n">
-        <v>1688.129489254169</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>842.3270571327721</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>670.3544940116881</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7836,22 +7836,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>1032.493025844838</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487767</v>
+        <v>519.5412919487775</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865903</v>
+        <v>522.088733586591</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533991</v>
+        <v>40.96901753790335</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099922</v>
       </c>
       <c r="P2" t="n">
-        <v>135.5393999712146</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>138.5273307558426</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>398.1422158589007</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675098</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761896</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.547532358796</v>
+        <v>505.5475323587968</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>29.03818836740523</v>
+        <v>29.03818836740798</v>
       </c>
       <c r="Q4" t="n">
         <v>152.9025226039384</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>547.9768619480851</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N6" t="n">
-        <v>461.4026962257055</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>180.0440798263965</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>380.3086605601452</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>458.8548577776432</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>517.6546514635598</v>
+        <v>924.3306556055937</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,10 +8710,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>144.610673677613</v>
+        <v>197.8252897670732</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,7 +8783,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>745.2028786174529</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397903</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>666.3063736060849</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>507.2052537942219</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>658.0402665189952</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,16 +9409,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.179015540608</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>493.0472488628404</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9479,22 +9479,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>700.6282357017791</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9503,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1004.802661823038</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9880,10 +9880,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9959,10 +9959,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>1121.661155963915</v>
@@ -10196,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M30" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>529.5908311320803</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>355.138624957478</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10597,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951734</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>39.42764440110528</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,16 +10828,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>1043.074428213578</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130248</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>451.7951195382844</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>99.39100174184128</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350194</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11071,13 +11071,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>362.1014486857561</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>482.7542307206702</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>698.7993741930985</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.0112248015704</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>158.965792875242</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>153.41703640077</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>17.22233013529085</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>188.9742787046153</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.24379827041854</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.66671528834294</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>32.82078141371744</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.7717151110431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>66.33105441802945</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25323,13 +25323,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>20.42505120001169</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>95.87819318577306</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>134.0471675772224</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>32.82078141371827</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>478521.9026254739</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>478521.9026254737</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>478521.9026254737</v>
+        <v>478521.9026254738</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567881.6013108843</v>
+        <v>567881.6013108836</v>
       </c>
       <c r="C2" t="n">
         <v>567881.6013108841</v>
       </c>
       <c r="D2" t="n">
-        <v>567881.6013108841</v>
+        <v>567881.6013108839</v>
       </c>
       <c r="E2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="F2" t="n">
+        <v>547979.643059011</v>
+      </c>
+      <c r="G2" t="n">
         <v>547979.6430590107</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547979.6430590111</v>
       </c>
       <c r="H2" t="n">
         <v>547979.6430590109</v>
@@ -26337,25 +26337,25 @@
         <v>547979.6430590109</v>
       </c>
       <c r="J2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="K2" t="n">
-        <v>547979.6430590109</v>
+        <v>547979.6430590111</v>
       </c>
       <c r="L2" t="n">
         <v>547979.643059011</v>
       </c>
       <c r="M2" t="n">
-        <v>547979.643059011</v>
+        <v>547979.6430590107</v>
       </c>
       <c r="N2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547979.6430590106</v>
+      </c>
+      <c r="P2" t="n">
         <v>547979.6430590107</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547979.6430590107</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547979.6430590105</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.696069591</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361243</v>
+        <v>23406.83367361217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802886</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701996</v>
+        <v>18646.60035701975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179728.0181786384</v>
+        <v>179728.0181786382</v>
       </c>
       <c r="C4" t="n">
         <v>165375.7390424566</v>
@@ -26429,37 +26429,37 @@
         <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389555</v>
       </c>
       <c r="G4" t="n">
+        <v>43748.40045389559</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43748.40045389561</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="J4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="H4" t="n">
-        <v>43748.40045389552</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>43748.40045389557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43748.40045389557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389552</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389546</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216122</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162987.6642404937</v>
+        <v>162987.6642404929</v>
       </c>
       <c r="C6" t="n">
-        <v>311652.777557387</v>
+        <v>311652.7775573871</v>
       </c>
       <c r="D6" t="n">
-        <v>335059.6112309994</v>
+        <v>335059.6112309991</v>
       </c>
       <c r="E6" t="n">
-        <v>210741.823860045</v>
+        <v>210690.7931978608</v>
       </c>
       <c r="F6" t="n">
-        <v>426481.1804166855</v>
+        <v>426430.1497545015</v>
       </c>
       <c r="G6" t="n">
-        <v>426481.1804166858</v>
+        <v>426430.1497545012</v>
       </c>
       <c r="H6" t="n">
-        <v>426481.1804166856</v>
+        <v>426430.1497545013</v>
       </c>
       <c r="I6" t="n">
-        <v>426481.1804166856</v>
+        <v>426430.1497545012</v>
       </c>
       <c r="J6" t="n">
-        <v>299903.911836397</v>
+        <v>299852.8811742123</v>
       </c>
       <c r="K6" t="n">
-        <v>407834.5800596657</v>
+        <v>407783.5493974817</v>
       </c>
       <c r="L6" t="n">
-        <v>426481.1804166857</v>
+        <v>426430.1497545014</v>
       </c>
       <c r="M6" t="n">
-        <v>246417.3089615181</v>
+        <v>246366.2782993337</v>
       </c>
       <c r="N6" t="n">
-        <v>426481.1804166855</v>
+        <v>426430.1497545011</v>
       </c>
       <c r="O6" t="n">
-        <v>426481.1804166856</v>
+        <v>426430.1497545011</v>
       </c>
       <c r="P6" t="n">
-        <v>426481.1804166853</v>
+        <v>426430.1497545012</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,16 +26798,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162677</v>
+        <v>72.45112196162597</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107.6276504895475</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27438,7 +27438,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>153.7131297645312</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.141750775475373</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>250.2413684215117</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>350.5048792244488</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.1659342747064</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27672,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>27.77629167420088</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>21.43047528078489</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>245.3945739651544</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340002</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.2155117306989</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2.875092756463952e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539674</v>
+        <v>3.537754638471533</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P2" t="n">
-        <v>97.96403816098331</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>116.1280969225092</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>375.6271291446711</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539674</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539674</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>6.657387709418744</v>
+        <v>6.6573877094215</v>
       </c>
       <c r="Q4" t="n">
         <v>128.2829598391535</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>510.5455990486533</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>440.0596680121639</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>437.0840165728146</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2233885641281</v>
+        <v>886.899392706162</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,10 +35430,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>122.2114398442797</v>
+        <v>175.4260559337399</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>723.4320374126243</v>
@@ -35585,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968668</v>
       </c>
       <c r="Q13" t="n">
         <v>128.2829598391535</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454721</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8622255806802</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>636.2694253141665</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.899392706162</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>455.4718870526091</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>1100.318127750374</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37317,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>17.02841056777194</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1005.643165314146</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>75.71808234769713</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494329</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37791,13 +37791,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>324.5260868755248</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>459.6574502083422</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.2641865125919</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
